--- a/179file.xlsx
+++ b/179file.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>total_payable_amount</t>
   </si>
   <si>
     <t>payment_method</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>CASH</t>
   </si>
 </sst>
 </file>
@@ -27,9 +33,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -44,12 +50,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -57,30 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,70 +129,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,15 +145,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,187 +207,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,6 +398,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,65 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,151 +500,151 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,10 +974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -993,7 +999,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B21" si="0">IF(A2&gt;=100,"CARD","CASH")</f>
+        <f t="shared" ref="B2:B23" si="0">IF(A2&gt;=100,"CARD","CASH")</f>
         <v>CARD</v>
       </c>
     </row>
@@ -1164,7 +1170,7 @@
         <v>130</v>
       </c>
       <c r="B21" t="str">
-        <f>IF(A21&gt;=100,"CARD","CASH")</f>
+        <f t="shared" si="0"/>
         <v>CARD</v>
       </c>
     </row>
@@ -1173,7 +1179,7 @@
         <v>150</v>
       </c>
       <c r="B22" t="str">
-        <f>IF(A22&gt;=100,"CARD","CASH")</f>
+        <f t="shared" si="0"/>
         <v>CARD</v>
       </c>
     </row>
@@ -1182,8 +1188,56 @@
         <v>90</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(A23&gt;=100,"CARD","CASH")</f>
+        <f t="shared" si="0"/>
         <v>CASH</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
